--- a/Code/Results/Cases/Case_5_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_166/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.78817494149292</v>
+        <v>11.17622703276411</v>
       </c>
       <c r="C2">
-        <v>13.90036533963631</v>
+        <v>8.448252368653652</v>
       </c>
       <c r="D2">
-        <v>3.765875937200801</v>
+        <v>3.852438476026334</v>
       </c>
       <c r="E2">
-        <v>12.178601774493</v>
+        <v>11.87252651299298</v>
       </c>
       <c r="F2">
-        <v>18.39704517687215</v>
+        <v>20.85295102378896</v>
       </c>
       <c r="I2">
-        <v>11.05109193084152</v>
+        <v>17.4299331331869</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.47006266991371</v>
+        <v>14.15154519726645</v>
       </c>
       <c r="N2">
-        <v>10.99484753044517</v>
+        <v>16.33347107265294</v>
       </c>
       <c r="O2">
-        <v>13.96850521508414</v>
+        <v>18.4545401647835</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.59033879067115</v>
+        <v>10.61141056364529</v>
       </c>
       <c r="C3">
-        <v>13.06659209268039</v>
+        <v>8.010231711293601</v>
       </c>
       <c r="D3">
-        <v>3.633963324776812</v>
+        <v>3.805593125082941</v>
       </c>
       <c r="E3">
-        <v>11.52044752792805</v>
+        <v>11.75994438436754</v>
       </c>
       <c r="F3">
-        <v>17.62765134982983</v>
+        <v>20.77413510526154</v>
       </c>
       <c r="I3">
-        <v>11.09666755089465</v>
+        <v>17.51116580657229</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.3385497981648</v>
+        <v>13.87218533177987</v>
       </c>
       <c r="N3">
-        <v>11.15010476201612</v>
+        <v>16.3846106211999</v>
       </c>
       <c r="O3">
-        <v>13.59368678949064</v>
+        <v>18.46272471924559</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.81258717403023</v>
+        <v>10.24956465618191</v>
       </c>
       <c r="C4">
-        <v>12.52718020610496</v>
+        <v>7.727085927984708</v>
       </c>
       <c r="D4">
-        <v>3.550056869369862</v>
+        <v>3.776170009103386</v>
       </c>
       <c r="E4">
-        <v>11.11157958153521</v>
+        <v>11.69489938987281</v>
       </c>
       <c r="F4">
-        <v>17.15789902614695</v>
+        <v>20.73284152840559</v>
       </c>
       <c r="I4">
-        <v>11.13833507893575</v>
+        <v>17.56551027831302</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.60632385978382</v>
+        <v>13.7010171826731</v>
       </c>
       <c r="N4">
-        <v>11.24870075344506</v>
+        <v>16.41776382012989</v>
       </c>
       <c r="O4">
-        <v>13.37423634481004</v>
+        <v>18.47334203089321</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.48500574076322</v>
+        <v>10.09849470632513</v>
       </c>
       <c r="C5">
-        <v>12.30049320656393</v>
+        <v>7.608197006260046</v>
       </c>
       <c r="D5">
-        <v>3.51516360187523</v>
+        <v>3.764020639967602</v>
       </c>
       <c r="E5">
-        <v>10.94396868269267</v>
+        <v>11.66944737282207</v>
       </c>
       <c r="F5">
-        <v>16.96742770256236</v>
+        <v>20.71781252560319</v>
       </c>
       <c r="I5">
-        <v>11.15857266947806</v>
+        <v>17.58877572524529</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.2984775400127</v>
+        <v>13.63145501701311</v>
       </c>
       <c r="N5">
-        <v>11.28969926903332</v>
+        <v>16.4317158433105</v>
       </c>
       <c r="O5">
-        <v>13.28755450238744</v>
+        <v>18.47907199672589</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42996832044031</v>
+        <v>10.07319683661219</v>
       </c>
       <c r="C6">
-        <v>12.26243833662958</v>
+        <v>7.588246105740095</v>
       </c>
       <c r="D6">
-        <v>3.509328270695724</v>
+        <v>3.761993829930942</v>
       </c>
       <c r="E6">
-        <v>10.91608366835561</v>
+        <v>11.66528553646765</v>
       </c>
       <c r="F6">
-        <v>16.93586673796261</v>
+        <v>20.71542592454843</v>
       </c>
       <c r="I6">
-        <v>11.162124566701</v>
+        <v>17.59270644972904</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.24678784754528</v>
+        <v>13.61991870714797</v>
       </c>
       <c r="N6">
-        <v>11.29655652664931</v>
+        <v>16.43405927928135</v>
       </c>
       <c r="O6">
-        <v>13.27332841422941</v>
+        <v>18.48010810958365</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.80821238788795</v>
+        <v>10.24754166594828</v>
       </c>
       <c r="C7">
-        <v>12.52415079126607</v>
+        <v>7.725496644043865</v>
       </c>
       <c r="D7">
-        <v>3.54958907949446</v>
+        <v>3.776006794118875</v>
       </c>
       <c r="E7">
-        <v>11.10932285039798</v>
+        <v>11.69455183079318</v>
       </c>
       <c r="F7">
-        <v>17.15532599186934</v>
+        <v>20.73263154478516</v>
       </c>
       <c r="I7">
-        <v>11.13859505961862</v>
+        <v>17.56581951583464</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.60221047091307</v>
+        <v>13.70007813978195</v>
       </c>
       <c r="N7">
-        <v>11.24925035575743</v>
+        <v>16.41795019180918</v>
       </c>
       <c r="O7">
-        <v>13.37305613468047</v>
+        <v>18.47341362966697</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.38392482918159</v>
+        <v>10.98469371046189</v>
       </c>
       <c r="C8">
-        <v>13.61859806975318</v>
+        <v>8.300205396035516</v>
       </c>
       <c r="D8">
-        <v>3.721014506199305</v>
+        <v>3.836427139027135</v>
       </c>
       <c r="E8">
-        <v>11.95276743105193</v>
+        <v>11.83287889940988</v>
       </c>
       <c r="F8">
-        <v>18.13137124415515</v>
+        <v>20.82431050332281</v>
       </c>
       <c r="I8">
-        <v>11.06385534010698</v>
+        <v>17.45701275459161</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.08766909750651</v>
+        <v>14.0552065066052</v>
       </c>
       <c r="N8">
-        <v>11.0477006808075</v>
+        <v>16.35074065412261</v>
       </c>
       <c r="O8">
-        <v>13.83708642286761</v>
+        <v>18.4562001744257</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.13958149046439</v>
+        <v>12.30480177999834</v>
       </c>
       <c r="C9">
-        <v>15.54612645407901</v>
+        <v>9.312272240194075</v>
       </c>
       <c r="D9">
-        <v>4.032878094575885</v>
+        <v>3.949389528930546</v>
       </c>
       <c r="E9">
-        <v>13.56210843914209</v>
+        <v>12.13515722279192</v>
       </c>
       <c r="F9">
-        <v>20.0552817874328</v>
+        <v>21.05971489511857</v>
       </c>
       <c r="I9">
-        <v>11.03414396765455</v>
+        <v>17.27925375878475</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.70556981735692</v>
+        <v>14.75018965945444</v>
       </c>
       <c r="N9">
-        <v>10.67852298141518</v>
+        <v>16.23281207741388</v>
       </c>
       <c r="O9">
-        <v>14.82902797690184</v>
+        <v>18.46689838648294</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.96265222164001</v>
+        <v>13.19169841628284</v>
       </c>
       <c r="C10">
-        <v>16.82905463186609</v>
+        <v>9.983448307774273</v>
       </c>
       <c r="D10">
-        <v>4.24582241053369</v>
+        <v>4.028648332275946</v>
       </c>
       <c r="E10">
-        <v>14.86068098142744</v>
+        <v>12.37417730824791</v>
       </c>
       <c r="F10">
-        <v>21.46214894351387</v>
+        <v>21.26543920845329</v>
       </c>
       <c r="I10">
-        <v>11.09486678840774</v>
+        <v>17.17058806886879</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.45296105391434</v>
+        <v>15.25440062742452</v>
       </c>
       <c r="N10">
-        <v>10.42346475409708</v>
+        <v>16.15456584690867</v>
       </c>
       <c r="O10">
-        <v>15.60391417061972</v>
+        <v>18.50191149302953</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.74891846241888</v>
+        <v>13.57615563574226</v>
       </c>
       <c r="C11">
-        <v>17.38401790816023</v>
+        <v>10.27273903397859</v>
       </c>
       <c r="D11">
-        <v>4.338955322234789</v>
+        <v>4.063820199713073</v>
       </c>
       <c r="E11">
-        <v>15.46245363077882</v>
+        <v>12.48613609818148</v>
       </c>
       <c r="F11">
-        <v>22.09875557289448</v>
+        <v>21.3658494193451</v>
       </c>
       <c r="I11">
-        <v>11.14280047877785</v>
+        <v>17.12596383555264</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.21072312356343</v>
+        <v>15.48129520752819</v>
       </c>
       <c r="N11">
-        <v>10.31104800694077</v>
+        <v>16.12078046575481</v>
       </c>
       <c r="O11">
-        <v>15.96567838332032</v>
+        <v>18.52372566244047</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.040526795154</v>
+        <v>13.71894466047142</v>
       </c>
       <c r="C12">
-        <v>17.5900805620856</v>
+        <v>10.37996137389597</v>
       </c>
       <c r="D12">
-        <v>4.373669620633851</v>
+        <v>4.077005891149653</v>
       </c>
       <c r="E12">
-        <v>15.68735676035682</v>
+        <v>12.52895625092656</v>
       </c>
       <c r="F12">
-        <v>22.33921732842771</v>
+        <v>21.40482522645563</v>
       </c>
       <c r="I12">
-        <v>11.16406215407349</v>
+        <v>17.10976119223357</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.49242404719426</v>
+        <v>15.56677328528756</v>
       </c>
       <c r="N12">
-        <v>10.26901034577402</v>
+        <v>16.10824611085534</v>
       </c>
       <c r="O12">
-        <v>16.10394656126852</v>
+        <v>18.53282991719347</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.97799552674347</v>
+        <v>13.68831777056039</v>
       </c>
       <c r="C13">
-        <v>17.54588262308574</v>
+        <v>10.35697283830784</v>
       </c>
       <c r="D13">
-        <v>4.366218100806909</v>
+        <v>4.074172132284549</v>
       </c>
       <c r="E13">
-        <v>15.6390502528736</v>
+        <v>12.51971596567684</v>
       </c>
       <c r="F13">
-        <v>22.2874581455094</v>
+        <v>21.39638920126547</v>
       </c>
       <c r="I13">
-        <v>11.1593417932865</v>
+        <v>17.11321971927105</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.43198650263074</v>
+        <v>15.54838502997231</v>
       </c>
       <c r="N13">
-        <v>10.27804000352562</v>
+        <v>16.11093408131475</v>
       </c>
       <c r="O13">
-        <v>16.0741120664528</v>
+        <v>18.53083168487972</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.77303182772202</v>
+        <v>13.58795935021584</v>
       </c>
       <c r="C14">
-        <v>17.40105257555713</v>
+        <v>10.28160699237788</v>
       </c>
       <c r="D14">
-        <v>4.341822455467867</v>
+        <v>4.064907696752655</v>
       </c>
       <c r="E14">
-        <v>15.48101548835785</v>
+        <v>12.489650677855</v>
       </c>
       <c r="F14">
-        <v>22.11855124439544</v>
+        <v>21.36903706267591</v>
       </c>
       <c r="I14">
-        <v>11.14448629269683</v>
+        <v>17.12461687010644</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.23400342345156</v>
+        <v>15.48833687491144</v>
       </c>
       <c r="N14">
-        <v>10.30757879386754</v>
+        <v>16.11974406144155</v>
       </c>
       <c r="O14">
-        <v>15.97702850153095</v>
+        <v>18.5244577856629</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.6466886942218</v>
+        <v>13.52612100863865</v>
       </c>
       <c r="C15">
-        <v>17.31180838334971</v>
+        <v>10.23513982666674</v>
       </c>
       <c r="D15">
-        <v>4.326806959594846</v>
+        <v>4.059215447736046</v>
       </c>
       <c r="E15">
-        <v>15.38383070658678</v>
+        <v>12.47128880263167</v>
       </c>
       <c r="F15">
-        <v>22.01500881516072</v>
+        <v>21.35240625849971</v>
       </c>
       <c r="I15">
-        <v>11.13579743234906</v>
+        <v>17.13168866248476</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.11205265378868</v>
+        <v>15.45149561133064</v>
       </c>
       <c r="N15">
-        <v>10.32574188918464</v>
+        <v>16.12517419363795</v>
       </c>
       <c r="O15">
-        <v>15.91772669234027</v>
+        <v>18.52066336239788</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.91040625656711</v>
+        <v>13.1661851364815</v>
       </c>
       <c r="C16">
-        <v>16.79221235468769</v>
+        <v>9.96421802120752</v>
       </c>
       <c r="D16">
-        <v>4.239659359086192</v>
+        <v>4.026331465215094</v>
       </c>
       <c r="E16">
-        <v>14.82093106978617</v>
+        <v>12.36692205285478</v>
       </c>
       <c r="F16">
-        <v>21.42046597752604</v>
+        <v>21.25901209109971</v>
       </c>
       <c r="I16">
-        <v>11.09215925547371</v>
+        <v>17.17360147919109</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.40269999467695</v>
+        <v>15.23951527139821</v>
       </c>
       <c r="N16">
-        <v>10.43088514397282</v>
+        <v>16.15681014439134</v>
       </c>
       <c r="O16">
-        <v>15.58045340135387</v>
+        <v>18.50060412554835</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.44773196408287</v>
+        <v>12.94046039803229</v>
       </c>
       <c r="C17">
-        <v>16.46613811260833</v>
+        <v>9.793894094314975</v>
       </c>
       <c r="D17">
-        <v>4.185228068668751</v>
+        <v>4.005927538100516</v>
       </c>
       <c r="E17">
-        <v>14.47018902546981</v>
+        <v>12.3036946136285</v>
       </c>
       <c r="F17">
-        <v>21.05476930337061</v>
+        <v>21.20344607562684</v>
       </c>
       <c r="I17">
-        <v>11.07072744067011</v>
+        <v>17.20054812955158</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.95808708633864</v>
+        <v>15.10877572963401</v>
       </c>
       <c r="N17">
-        <v>10.49632014927043</v>
+        <v>16.17668063482697</v>
       </c>
       <c r="O17">
-        <v>15.3758767377654</v>
+        <v>18.48980448738369</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.17755726151994</v>
+        <v>12.80884445391961</v>
       </c>
       <c r="C18">
-        <v>16.2758900977088</v>
+        <v>9.694420261452599</v>
       </c>
       <c r="D18">
-        <v>4.153569708747499</v>
+        <v>3.99410894317505</v>
       </c>
       <c r="E18">
-        <v>14.26642472247899</v>
+        <v>12.26763410885655</v>
       </c>
       <c r="F18">
-        <v>20.84411667156523</v>
+        <v>21.17213025961129</v>
       </c>
       <c r="I18">
-        <v>11.06030114013693</v>
+        <v>17.21649946677227</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.69885605296072</v>
+        <v>15.03334984215856</v>
       </c>
       <c r="N18">
-        <v>10.53429553122552</v>
+        <v>16.18827994983412</v>
       </c>
       <c r="O18">
-        <v>15.25908449128954</v>
+        <v>18.48414712445017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.08538234570306</v>
+        <v>12.76397716079555</v>
       </c>
       <c r="C19">
-        <v>16.21101111671388</v>
+        <v>9.660481841790654</v>
       </c>
       <c r="D19">
-        <v>4.142790983698646</v>
+        <v>3.990093339695833</v>
       </c>
       <c r="E19">
-        <v>14.19708244335717</v>
+        <v>12.25547845482136</v>
       </c>
       <c r="F19">
-        <v>20.77274370955027</v>
+        <v>21.16163876186693</v>
       </c>
       <c r="I19">
-        <v>11.05709154814394</v>
+        <v>17.22197787768609</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.6104808246141</v>
+        <v>15.00777548948644</v>
       </c>
       <c r="N19">
-        <v>10.54721120269487</v>
+        <v>16.19223655629738</v>
       </c>
       <c r="O19">
-        <v>15.21969278359598</v>
+        <v>18.48232690742199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.49740388366561</v>
+        <v>12.96467443719919</v>
       </c>
       <c r="C20">
-        <v>16.50112839372414</v>
+        <v>9.812181606561991</v>
       </c>
       <c r="D20">
-        <v>4.191058813866657</v>
+        <v>4.008108184994612</v>
       </c>
       <c r="E20">
-        <v>14.50773513067602</v>
+        <v>12.31039387674395</v>
       </c>
       <c r="F20">
-        <v>21.09373177929256</v>
+        <v>21.20929469352028</v>
       </c>
       <c r="I20">
-        <v>11.07281078451104</v>
+        <v>17.19763276726133</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.00577863282711</v>
+        <v>15.1227174108028</v>
       </c>
       <c r="N20">
-        <v>10.48931932238757</v>
+        <v>16.17454776355858</v>
       </c>
       <c r="O20">
-        <v>15.3975641721495</v>
+        <v>18.4908967756029</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.83340060567547</v>
+        <v>13.6175134053538</v>
       </c>
       <c r="C21">
-        <v>17.44370339316604</v>
+        <v>10.30380702810215</v>
       </c>
       <c r="D21">
-        <v>4.349003172973755</v>
+        <v>4.067632546655158</v>
       </c>
       <c r="E21">
-        <v>15.52751392141472</v>
+        <v>12.49847040478033</v>
       </c>
       <c r="F21">
-        <v>22.1681805659412</v>
+        <v>21.37704543452516</v>
       </c>
       <c r="I21">
-        <v>11.14876382328941</v>
+        <v>17.12125033972348</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.29229747240655</v>
+        <v>15.50598713183452</v>
       </c>
       <c r="N21">
-        <v>10.29888797535667</v>
+        <v>16.11714932139379</v>
       </c>
       <c r="O21">
-        <v>16.00551006388349</v>
+        <v>18.52630708402713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.67083155992857</v>
+        <v>14.02785902395911</v>
       </c>
       <c r="C22">
-        <v>18.03591108327873</v>
+        <v>10.61155010428555</v>
       </c>
       <c r="D22">
-        <v>4.448999333186885</v>
+        <v>4.105756505171384</v>
       </c>
       <c r="E22">
-        <v>16.17671909536012</v>
+        <v>12.62384034453094</v>
       </c>
       <c r="F22">
-        <v>22.86682372668846</v>
+        <v>21.49221814268567</v>
       </c>
       <c r="I22">
-        <v>11.21661544127338</v>
+        <v>17.07538631251686</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.10257738671574</v>
+        <v>15.75386339120493</v>
       </c>
       <c r="N22">
-        <v>10.17753995459458</v>
+        <v>16.08114799037169</v>
       </c>
       <c r="O22">
-        <v>16.41025715271288</v>
+        <v>18.55436545671321</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.22712649786112</v>
+        <v>13.81036167651891</v>
       </c>
       <c r="C23">
-        <v>17.72200629773826</v>
+        <v>10.44854833299779</v>
       </c>
       <c r="D23">
-        <v>4.395929604823603</v>
+        <v>4.08548223238733</v>
       </c>
       <c r="E23">
-        <v>15.83176681799468</v>
+        <v>12.55671725300026</v>
       </c>
       <c r="F23">
-        <v>22.49430224413065</v>
+        <v>21.43025163653811</v>
       </c>
       <c r="I23">
-        <v>11.17867444380569</v>
+        <v>17.09949229214111</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.67287655398614</v>
+        <v>15.62183344261978</v>
       </c>
       <c r="N23">
-        <v>10.24201603861252</v>
+        <v>16.10022447652569</v>
       </c>
       <c r="O23">
-        <v>16.19357277326229</v>
+        <v>18.53894158636472</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47496022383958</v>
+        <v>12.95373300801968</v>
       </c>
       <c r="C24">
-        <v>16.48531796003124</v>
+        <v>9.803918655917322</v>
       </c>
       <c r="D24">
-        <v>4.188423869898362</v>
+        <v>4.007122588490117</v>
       </c>
       <c r="E24">
-        <v>14.49076714181695</v>
+        <v>12.30736423416212</v>
       </c>
       <c r="F24">
-        <v>21.07611810748987</v>
+        <v>21.20664856931424</v>
       </c>
       <c r="I24">
-        <v>11.07186301628965</v>
+        <v>17.19894937198979</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.9842285581857</v>
+        <v>15.11641518613719</v>
       </c>
       <c r="N24">
-        <v>10.49248328853088</v>
+        <v>16.17551148789399</v>
       </c>
       <c r="O24">
-        <v>15.38775671952584</v>
+        <v>18.49040123400433</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.42968917171803</v>
+        <v>11.96185823515192</v>
       </c>
       <c r="C25">
-        <v>15.04812725065642</v>
+        <v>9.051059709466712</v>
       </c>
       <c r="D25">
-        <v>3.951265726951187</v>
+        <v>3.919460150961907</v>
       </c>
       <c r="E25">
-        <v>13.13232653094924</v>
+        <v>12.05025863478781</v>
       </c>
       <c r="F25">
-        <v>19.5351890692158</v>
+        <v>20.9901840011887</v>
       </c>
       <c r="I25">
-        <v>11.02850068966316</v>
+        <v>17.32350665063151</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.02858264458699</v>
+        <v>14.56291480160232</v>
       </c>
       <c r="N25">
-        <v>10.7755822472007</v>
+        <v>16.263236294325</v>
       </c>
       <c r="O25">
-        <v>14.5523061984525</v>
+        <v>18.45923558686937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_166/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.17622703276411</v>
+        <v>18.78817494149293</v>
       </c>
       <c r="C2">
-        <v>8.448252368653652</v>
+        <v>13.90036533963631</v>
       </c>
       <c r="D2">
-        <v>3.852438476026334</v>
+        <v>3.765875937200688</v>
       </c>
       <c r="E2">
-        <v>11.87252651299298</v>
+        <v>12.17860177449299</v>
       </c>
       <c r="F2">
-        <v>20.85295102378896</v>
+        <v>18.39704517687217</v>
       </c>
       <c r="I2">
-        <v>17.4299331331869</v>
+        <v>11.05109193084153</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.15154519726645</v>
+        <v>17.4700626699137</v>
       </c>
       <c r="N2">
-        <v>16.33347107265294</v>
+        <v>10.99484753044517</v>
       </c>
       <c r="O2">
-        <v>18.4545401647835</v>
+        <v>13.96850521508414</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.61141056364529</v>
+        <v>17.59033879067108</v>
       </c>
       <c r="C3">
-        <v>8.010231711293601</v>
+        <v>13.06659209268043</v>
       </c>
       <c r="D3">
-        <v>3.805593125082941</v>
+        <v>3.633963324776861</v>
       </c>
       <c r="E3">
-        <v>11.75994438436754</v>
+        <v>11.52044752792803</v>
       </c>
       <c r="F3">
-        <v>20.77413510526154</v>
+        <v>17.62765134982991</v>
       </c>
       <c r="I3">
-        <v>17.51116580657229</v>
+        <v>11.09666755089479</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.87218533177987</v>
+        <v>16.33854979816479</v>
       </c>
       <c r="N3">
-        <v>16.3846106211999</v>
+        <v>11.15010476201621</v>
       </c>
       <c r="O3">
-        <v>18.46272471924559</v>
+        <v>13.59368678949075</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.24956465618191</v>
+        <v>16.81258717403022</v>
       </c>
       <c r="C4">
-        <v>7.727085927984708</v>
+        <v>12.52718020610513</v>
       </c>
       <c r="D4">
-        <v>3.776170009103386</v>
+        <v>3.550056869369735</v>
       </c>
       <c r="E4">
-        <v>11.69489938987281</v>
+        <v>11.11157958153519</v>
       </c>
       <c r="F4">
-        <v>20.73284152840559</v>
+        <v>17.15789902614706</v>
       </c>
       <c r="I4">
-        <v>17.56551027831302</v>
+        <v>11.13833507893585</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.7010171826731</v>
+        <v>15.60632385978383</v>
       </c>
       <c r="N4">
-        <v>16.41776382012989</v>
+        <v>11.24870075344509</v>
       </c>
       <c r="O4">
-        <v>18.47334203089321</v>
+        <v>13.37423634481014</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.09849470632513</v>
+        <v>16.48500574076321</v>
       </c>
       <c r="C5">
-        <v>7.608197006260046</v>
+        <v>12.30049320656393</v>
       </c>
       <c r="D5">
-        <v>3.764020639967602</v>
+        <v>3.515163601875225</v>
       </c>
       <c r="E5">
-        <v>11.66944737282207</v>
+        <v>10.94396868269263</v>
       </c>
       <c r="F5">
-        <v>20.71781252560319</v>
+        <v>16.96742770256244</v>
       </c>
       <c r="I5">
-        <v>17.58877572524529</v>
+        <v>11.1585726694781</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.63145501701311</v>
+        <v>15.29847754001267</v>
       </c>
       <c r="N5">
-        <v>16.4317158433105</v>
+        <v>11.28969926903336</v>
       </c>
       <c r="O5">
-        <v>18.47907199672589</v>
+        <v>13.28755450238753</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.07319683661219</v>
+        <v>16.42996832044041</v>
       </c>
       <c r="C6">
-        <v>7.588246105740095</v>
+        <v>12.26243833662964</v>
       </c>
       <c r="D6">
-        <v>3.761993829930942</v>
+        <v>3.509328270695785</v>
       </c>
       <c r="E6">
-        <v>11.66528553646765</v>
+        <v>10.91608366835564</v>
       </c>
       <c r="F6">
-        <v>20.71542592454843</v>
+        <v>16.93586673796245</v>
       </c>
       <c r="I6">
-        <v>17.59270644972904</v>
+        <v>11.1621245667008</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.61991870714797</v>
+        <v>15.24678784754535</v>
       </c>
       <c r="N6">
-        <v>16.43405927928135</v>
+        <v>11.2965565266492</v>
       </c>
       <c r="O6">
-        <v>18.48010810958365</v>
+        <v>13.27332841422927</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.24754166594828</v>
+        <v>16.80821238788795</v>
       </c>
       <c r="C7">
-        <v>7.725496644043865</v>
+        <v>12.52415079126606</v>
       </c>
       <c r="D7">
-        <v>3.776006794118875</v>
+        <v>3.549589079494617</v>
       </c>
       <c r="E7">
-        <v>11.69455183079318</v>
+        <v>11.10932285039803</v>
       </c>
       <c r="F7">
-        <v>20.73263154478516</v>
+        <v>17.15532599186927</v>
       </c>
       <c r="I7">
-        <v>17.56581951583464</v>
+        <v>11.13859505961857</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.70007813978195</v>
+        <v>15.60221047091305</v>
       </c>
       <c r="N7">
-        <v>16.41795019180918</v>
+        <v>11.24925035575743</v>
       </c>
       <c r="O7">
-        <v>18.47341362966697</v>
+        <v>13.37305613468043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.98469371046189</v>
+        <v>18.38392482918161</v>
       </c>
       <c r="C8">
-        <v>8.300205396035516</v>
+        <v>13.61859806975306</v>
       </c>
       <c r="D8">
-        <v>3.836427139027135</v>
+        <v>3.72101450619925</v>
       </c>
       <c r="E8">
-        <v>11.83287889940988</v>
+        <v>11.95276743105194</v>
       </c>
       <c r="F8">
-        <v>20.82431050332281</v>
+        <v>18.13137124415519</v>
       </c>
       <c r="I8">
-        <v>17.45701275459161</v>
+        <v>11.06385534010707</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.0552065066052</v>
+        <v>17.08766909750648</v>
       </c>
       <c r="N8">
-        <v>16.35074065412261</v>
+        <v>11.04770068080757</v>
       </c>
       <c r="O8">
-        <v>18.4562001744257</v>
+        <v>13.83708642286766</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.30480177999834</v>
+        <v>21.1395814904644</v>
       </c>
       <c r="C9">
-        <v>9.312272240194075</v>
+        <v>15.54612645407893</v>
       </c>
       <c r="D9">
-        <v>3.949389528930546</v>
+        <v>4.032878094575975</v>
       </c>
       <c r="E9">
-        <v>12.13515722279192</v>
+        <v>13.56210843914209</v>
       </c>
       <c r="F9">
-        <v>21.05971489511857</v>
+        <v>20.05528178743283</v>
       </c>
       <c r="I9">
-        <v>17.27925375878475</v>
+        <v>11.03414396765454</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.75018965945444</v>
+        <v>19.70556981735692</v>
       </c>
       <c r="N9">
-        <v>16.23281207741388</v>
+        <v>10.67852298141511</v>
       </c>
       <c r="O9">
-        <v>18.46689838648294</v>
+        <v>14.82902797690187</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.19169841628284</v>
+        <v>22.96265222164005</v>
       </c>
       <c r="C10">
-        <v>9.983448307774273</v>
+        <v>16.8290546318661</v>
       </c>
       <c r="D10">
-        <v>4.028648332275946</v>
+        <v>4.245822410533734</v>
       </c>
       <c r="E10">
-        <v>12.37417730824791</v>
+        <v>14.86068098142745</v>
       </c>
       <c r="F10">
-        <v>21.26543920845329</v>
+        <v>21.46214894351387</v>
       </c>
       <c r="I10">
-        <v>17.17058806886879</v>
+        <v>11.09486678840766</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.25440062742452</v>
+        <v>21.45296105391435</v>
       </c>
       <c r="N10">
-        <v>16.15456584690867</v>
+        <v>10.42346475409701</v>
       </c>
       <c r="O10">
-        <v>18.50191149302953</v>
+        <v>15.6039141706197</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.57615563574226</v>
+        <v>23.74891846241881</v>
       </c>
       <c r="C11">
-        <v>10.27273903397859</v>
+        <v>17.38401790816021</v>
       </c>
       <c r="D11">
-        <v>4.063820199713073</v>
+        <v>4.338955322234832</v>
       </c>
       <c r="E11">
-        <v>12.48613609818148</v>
+        <v>15.46245363077882</v>
       </c>
       <c r="F11">
-        <v>21.3658494193451</v>
+        <v>22.09875557289453</v>
       </c>
       <c r="I11">
-        <v>17.12596383555264</v>
+        <v>11.14280047877799</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.48129520752819</v>
+        <v>22.21072312356338</v>
       </c>
       <c r="N11">
-        <v>16.12078046575481</v>
+        <v>10.31104800694089</v>
       </c>
       <c r="O11">
-        <v>18.52372566244047</v>
+        <v>15.96567838332042</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.71894466047142</v>
+        <v>24.04052679515394</v>
       </c>
       <c r="C12">
-        <v>10.37996137389597</v>
+        <v>17.59008056208549</v>
       </c>
       <c r="D12">
-        <v>4.077005891149653</v>
+        <v>4.373669620633881</v>
       </c>
       <c r="E12">
-        <v>12.52895625092656</v>
+        <v>15.68735676035679</v>
       </c>
       <c r="F12">
-        <v>21.40482522645563</v>
+        <v>22.33921732842771</v>
       </c>
       <c r="I12">
-        <v>17.10976119223357</v>
+        <v>11.16406215407357</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.56677328528756</v>
+        <v>22.49242404719418</v>
       </c>
       <c r="N12">
-        <v>16.10824611085534</v>
+        <v>10.26901034577405</v>
       </c>
       <c r="O12">
-        <v>18.53282991719347</v>
+        <v>16.10394656126856</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.68831777056039</v>
+        <v>23.97799552674345</v>
       </c>
       <c r="C13">
-        <v>10.35697283830784</v>
+        <v>17.54588262308582</v>
       </c>
       <c r="D13">
-        <v>4.074172132284549</v>
+        <v>4.366218100806891</v>
       </c>
       <c r="E13">
-        <v>12.51971596567684</v>
+        <v>15.63905025287361</v>
       </c>
       <c r="F13">
-        <v>21.39638920126547</v>
+        <v>22.28745814550943</v>
       </c>
       <c r="I13">
-        <v>17.11321971927105</v>
+        <v>11.15934179328655</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.54838502997231</v>
+        <v>22.43198650263076</v>
       </c>
       <c r="N13">
-        <v>16.11093408131475</v>
+        <v>10.27804000352565</v>
       </c>
       <c r="O13">
-        <v>18.53083168487972</v>
+        <v>16.07411206645284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.58795935021584</v>
+        <v>23.7730318277221</v>
       </c>
       <c r="C14">
-        <v>10.28160699237788</v>
+        <v>17.40105257555706</v>
       </c>
       <c r="D14">
-        <v>4.064907696752655</v>
+        <v>4.341822455467908</v>
       </c>
       <c r="E14">
-        <v>12.489650677855</v>
+        <v>15.48101548835795</v>
       </c>
       <c r="F14">
-        <v>21.36903706267591</v>
+        <v>22.11855124439549</v>
       </c>
       <c r="I14">
-        <v>17.12461687010644</v>
+        <v>11.1444862926968</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.48833687491144</v>
+        <v>22.23400342345165</v>
       </c>
       <c r="N14">
-        <v>16.11974406144155</v>
+        <v>10.3075787938675</v>
       </c>
       <c r="O14">
-        <v>18.5244577856629</v>
+        <v>15.97702850153098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.52612100863865</v>
+        <v>23.64668869422179</v>
       </c>
       <c r="C15">
-        <v>10.23513982666674</v>
+        <v>17.31180838334977</v>
       </c>
       <c r="D15">
-        <v>4.059215447736046</v>
+        <v>4.32680695959487</v>
       </c>
       <c r="E15">
-        <v>12.47128880263167</v>
+        <v>15.38383070658681</v>
       </c>
       <c r="F15">
-        <v>21.35240625849971</v>
+        <v>22.01500881516071</v>
       </c>
       <c r="I15">
-        <v>17.13168866248476</v>
+        <v>11.13579743234911</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.45149561133064</v>
+        <v>22.1120526537887</v>
       </c>
       <c r="N15">
-        <v>16.12517419363795</v>
+        <v>10.32574188918464</v>
       </c>
       <c r="O15">
-        <v>18.52066336239788</v>
+        <v>15.91772669234027</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.1661851364815</v>
+        <v>22.9104062565671</v>
       </c>
       <c r="C16">
-        <v>9.96421802120752</v>
+        <v>16.79221235468766</v>
       </c>
       <c r="D16">
-        <v>4.026331465215094</v>
+        <v>4.239659359086265</v>
       </c>
       <c r="E16">
-        <v>12.36692205285478</v>
+        <v>14.82093106978617</v>
       </c>
       <c r="F16">
-        <v>21.25901209109971</v>
+        <v>21.42046597752608</v>
       </c>
       <c r="I16">
-        <v>17.17360147919109</v>
+        <v>11.09215925547383</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.23951527139821</v>
+        <v>21.4026999946769</v>
       </c>
       <c r="N16">
-        <v>16.15681014439134</v>
+        <v>10.43088514397288</v>
       </c>
       <c r="O16">
-        <v>18.50060412554835</v>
+        <v>15.58045340135395</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.94046039803229</v>
+        <v>22.44773196408284</v>
       </c>
       <c r="C17">
-        <v>9.793894094314975</v>
+        <v>16.46613811260844</v>
       </c>
       <c r="D17">
-        <v>4.005927538100516</v>
+        <v>4.185228068668683</v>
       </c>
       <c r="E17">
-        <v>12.3036946136285</v>
+        <v>14.47018902546979</v>
       </c>
       <c r="F17">
-        <v>21.20344607562684</v>
+        <v>21.05476930337063</v>
       </c>
       <c r="I17">
-        <v>17.20054812955158</v>
+        <v>11.07072744067018</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.10877572963401</v>
+        <v>20.95808708633863</v>
       </c>
       <c r="N17">
-        <v>16.17668063482697</v>
+        <v>10.49632014927046</v>
       </c>
       <c r="O17">
-        <v>18.48980448738369</v>
+        <v>15.37587673776543</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.80884445391961</v>
+        <v>22.17755726151986</v>
       </c>
       <c r="C18">
-        <v>9.694420261452599</v>
+        <v>16.27589009770886</v>
       </c>
       <c r="D18">
-        <v>3.99410894317505</v>
+        <v>4.153569708747588</v>
       </c>
       <c r="E18">
-        <v>12.26763410885655</v>
+        <v>14.26642472247902</v>
       </c>
       <c r="F18">
-        <v>21.17213025961129</v>
+        <v>20.8441166715652</v>
       </c>
       <c r="I18">
-        <v>17.21649946677227</v>
+        <v>11.06030114013696</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.03334984215856</v>
+        <v>20.69885605296071</v>
       </c>
       <c r="N18">
-        <v>16.18827994983412</v>
+        <v>10.53429553122546</v>
       </c>
       <c r="O18">
-        <v>18.48414712445017</v>
+        <v>15.25908449128953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.76397716079555</v>
+        <v>22.08538234570307</v>
       </c>
       <c r="C19">
-        <v>9.660481841790654</v>
+        <v>16.21101111671386</v>
       </c>
       <c r="D19">
-        <v>3.990093339695833</v>
+        <v>4.142790983698609</v>
       </c>
       <c r="E19">
-        <v>12.25547845482136</v>
+        <v>14.19708244335716</v>
       </c>
       <c r="F19">
-        <v>21.16163876186693</v>
+        <v>20.77274370955032</v>
       </c>
       <c r="I19">
-        <v>17.22197787768609</v>
+        <v>11.05709154814392</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.00777548948644</v>
+        <v>20.61048082461409</v>
       </c>
       <c r="N19">
-        <v>16.19223655629738</v>
+        <v>10.54721120269483</v>
       </c>
       <c r="O19">
-        <v>18.48232690742199</v>
+        <v>15.21969278359601</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.96467443719919</v>
+        <v>22.49740388366556</v>
       </c>
       <c r="C20">
-        <v>9.812181606561991</v>
+        <v>16.50112839372402</v>
       </c>
       <c r="D20">
-        <v>4.008108184994612</v>
+        <v>4.191058813866762</v>
       </c>
       <c r="E20">
-        <v>12.31039387674395</v>
+        <v>14.507735130676</v>
       </c>
       <c r="F20">
-        <v>21.20929469352028</v>
+        <v>21.0937317792926</v>
       </c>
       <c r="I20">
-        <v>17.19763276726133</v>
+        <v>11.0728107845111</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.1227174108028</v>
+        <v>21.00577863282705</v>
       </c>
       <c r="N20">
-        <v>16.17454776355858</v>
+        <v>10.48931932238763</v>
       </c>
       <c r="O20">
-        <v>18.4908967756029</v>
+        <v>15.39756417214954</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.6175134053538</v>
+        <v>23.83340060567548</v>
       </c>
       <c r="C21">
-        <v>10.30380702810215</v>
+        <v>17.44370339316601</v>
       </c>
       <c r="D21">
-        <v>4.067632546655158</v>
+        <v>4.349003172973797</v>
       </c>
       <c r="E21">
-        <v>12.49847040478033</v>
+        <v>15.52751392141473</v>
       </c>
       <c r="F21">
-        <v>21.37704543452516</v>
+        <v>22.16818056594125</v>
       </c>
       <c r="I21">
-        <v>17.12125033972348</v>
+        <v>11.14876382328951</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.50598713183452</v>
+        <v>22.29229747240654</v>
       </c>
       <c r="N21">
-        <v>16.11714932139379</v>
+        <v>10.29888797535676</v>
       </c>
       <c r="O21">
-        <v>18.52630708402713</v>
+        <v>16.00551006388356</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.02785902395911</v>
+        <v>24.67083155992856</v>
       </c>
       <c r="C22">
-        <v>10.61155010428555</v>
+        <v>18.03591108327869</v>
       </c>
       <c r="D22">
-        <v>4.105756505171384</v>
+        <v>4.448999333186872</v>
       </c>
       <c r="E22">
-        <v>12.62384034453094</v>
+        <v>16.17671909536014</v>
       </c>
       <c r="F22">
-        <v>21.49221814268567</v>
+        <v>22.86682372668846</v>
       </c>
       <c r="I22">
-        <v>17.07538631251686</v>
+        <v>11.21661544127341</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.75386339120493</v>
+        <v>23.10257738671574</v>
       </c>
       <c r="N22">
-        <v>16.08114799037169</v>
+        <v>10.17753995459458</v>
       </c>
       <c r="O22">
-        <v>18.55436545671321</v>
+        <v>16.41025715271288</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.81036167651891</v>
+        <v>24.22712649786113</v>
       </c>
       <c r="C23">
-        <v>10.44854833299779</v>
+        <v>17.72200629773835</v>
       </c>
       <c r="D23">
-        <v>4.08548223238733</v>
+        <v>4.395929604823625</v>
       </c>
       <c r="E23">
-        <v>12.55671725300026</v>
+        <v>15.83176681799467</v>
       </c>
       <c r="F23">
-        <v>21.43025163653811</v>
+        <v>22.49430224413064</v>
       </c>
       <c r="I23">
-        <v>17.09949229214111</v>
+        <v>11.17867444380567</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.62183344261978</v>
+        <v>22.67287655398614</v>
       </c>
       <c r="N23">
-        <v>16.10022447652569</v>
+        <v>10.24201603861245</v>
       </c>
       <c r="O23">
-        <v>18.53894158636472</v>
+        <v>16.19357277326228</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.95373300801968</v>
+        <v>22.47496022383964</v>
       </c>
       <c r="C24">
-        <v>9.803918655917322</v>
+        <v>16.48531796003117</v>
       </c>
       <c r="D24">
-        <v>4.007122588490117</v>
+        <v>4.188423869898481</v>
       </c>
       <c r="E24">
-        <v>12.30736423416212</v>
+        <v>14.49076714181689</v>
       </c>
       <c r="F24">
-        <v>21.20664856931424</v>
+        <v>21.07611810748985</v>
       </c>
       <c r="I24">
-        <v>17.19894937198979</v>
+        <v>11.07186301628953</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.11641518613719</v>
+        <v>20.98422855818566</v>
       </c>
       <c r="N24">
-        <v>16.17551148789399</v>
+        <v>10.49248328853078</v>
       </c>
       <c r="O24">
-        <v>18.49040123400433</v>
+        <v>15.38775671952582</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.96185823515192</v>
+        <v>20.42968917171802</v>
       </c>
       <c r="C25">
-        <v>9.051059709466712</v>
+        <v>15.04812725065636</v>
       </c>
       <c r="D25">
-        <v>3.919460150961907</v>
+        <v>3.951265726951182</v>
       </c>
       <c r="E25">
-        <v>12.05025863478781</v>
+        <v>13.13232653094925</v>
       </c>
       <c r="F25">
-        <v>20.9901840011887</v>
+        <v>19.53518906921579</v>
       </c>
       <c r="I25">
-        <v>17.32350665063151</v>
+        <v>11.02850068966314</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.56291480160232</v>
+        <v>19.02858264458701</v>
       </c>
       <c r="N25">
-        <v>16.263236294325</v>
+        <v>10.77558224720067</v>
       </c>
       <c r="O25">
-        <v>18.45923558686937</v>
+        <v>14.55230619845248</v>
       </c>
     </row>
   </sheetData>
